--- a/UNITY_ProjectMEKA/Assets/Resources/Table/싱크로테이블 적용해야함.xlsx
+++ b/UNITY_ProjectMEKA/Assets/Resources/Table/싱크로테이블 적용해야함.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UNITY_ProjectMEKA\UNITY_ProjectMEKA\Assets\Resources\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +210,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
@@ -663,14 +656,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -996,7 +989,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1050,13 +1043,13 @@
       <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <v>5610003</v>
+      <c r="E2" s="3">
+        <v>5620001</v>
       </c>
       <c r="F2" s="1">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>5910001</v>
       </c>
       <c r="H2" s="1">
@@ -1076,13 +1069,13 @@
       <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>5610003</v>
+      <c r="E3" s="3">
+        <v>5620001</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>5910001</v>
       </c>
       <c r="H3" s="1">
@@ -1102,13 +1095,13 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
-        <v>5610003</v>
+      <c r="E4" s="3">
+        <v>5620001</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>5910001</v>
       </c>
       <c r="H4" s="1">
@@ -1128,13 +1121,13 @@
       <c r="D5" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
-        <v>5610004</v>
+      <c r="E5" s="3">
+        <v>5620001</v>
       </c>
       <c r="F5" s="1">
         <v>7</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>5910001</v>
       </c>
       <c r="H5" s="1">
@@ -1154,13 +1147,13 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
-        <v>5610004</v>
+      <c r="E6" s="3">
+        <v>5620001</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>5910001</v>
       </c>
       <c r="H6" s="1">
@@ -1180,13 +1173,13 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
-        <v>5610004</v>
+      <c r="E7" s="3">
+        <v>5620001</v>
       </c>
       <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>5910001</v>
       </c>
       <c r="H7" s="1">
@@ -1206,13 +1199,13 @@
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
-        <v>5610005</v>
+      <c r="E8" s="3">
+        <v>5620002</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>5910001</v>
       </c>
       <c r="H8" s="1">
@@ -1232,13 +1225,13 @@
       <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
-        <v>5610005</v>
+      <c r="E9" s="3">
+        <v>5620002</v>
       </c>
       <c r="F9" s="1">
         <v>15</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>5910001</v>
       </c>
       <c r="H9" s="1">
@@ -1258,13 +1251,13 @@
       <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="2">
-        <v>5610005</v>
+      <c r="E10" s="3">
+        <v>5620002</v>
       </c>
       <c r="F10" s="1">
         <v>30</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>5910001</v>
       </c>
       <c r="H10" s="1">
@@ -1284,13 +1277,13 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
-        <v>5610006</v>
+      <c r="E11" s="3">
+        <v>5620002</v>
       </c>
       <c r="F11" s="1">
         <v>7</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>5910001</v>
       </c>
       <c r="H11" s="1">
@@ -1310,13 +1303,13 @@
       <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
-        <v>5610006</v>
+      <c r="E12" s="3">
+        <v>5620002</v>
       </c>
       <c r="F12" s="1">
         <v>15</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>5910001</v>
       </c>
       <c r="H12" s="1">
@@ -1336,13 +1329,13 @@
       <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E13" s="2">
-        <v>5610006</v>
+      <c r="E13" s="3">
+        <v>5620002</v>
       </c>
       <c r="F13" s="1">
         <v>30</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>5910001</v>
       </c>
       <c r="H13" s="1">
@@ -1362,13 +1355,13 @@
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
-        <v>5610007</v>
+      <c r="E14" s="3">
+        <v>5620002</v>
       </c>
       <c r="F14" s="1">
         <v>7</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>5910001</v>
       </c>
       <c r="H14" s="1">
@@ -1388,13 +1381,13 @@
       <c r="D15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
-        <v>5610007</v>
+      <c r="E15" s="3">
+        <v>5620002</v>
       </c>
       <c r="F15" s="1">
         <v>15</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>5910001</v>
       </c>
       <c r="H15" s="1">
@@ -1414,13 +1407,13 @@
       <c r="D16" s="1">
         <v>20</v>
       </c>
-      <c r="E16" s="2">
-        <v>5610007</v>
+      <c r="E16" s="3">
+        <v>5620002</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>5910001</v>
       </c>
       <c r="H16" s="1">
